--- a/course/major/R语言语法速查.xlsx
+++ b/course/major/R语言语法速查.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Academy_Centre\第三学期\[专业]定量研究方法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2D5630-6CE9-4CB1-8794-0029E0A3E2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1490DB-B0A8-4390-9C0D-8FA935706AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9520" yWindow="1910" windowWidth="16280" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3290" yWindow="1900" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="203">
   <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2943,6 +2943,400 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample(vec, size = a, replace = b)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vec: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">作为样本空间的向量
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">a: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">试验次数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">b: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>布尔值；为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>TRUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时允许重复的事件（有替换地取样），为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>FALSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时不允许重复的事件（无替换地取样）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在样本空间内进行一定次数的随机取样，返回一个包含结果的向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set.seed(a)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种子码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置随机种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replicate(n = x, sample(vec, size = a, replace = b))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个常用的重复抽样的函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">x: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">重复次数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">vec: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">作为样本空间的向量
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">a: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">试验次数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">b: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>布尔值（同上项）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbinom(x = a, size = b, prob = c)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+b: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">试验次数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">c: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每次试验的成功概率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二项随机变量的概率质量函数（PMF）的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pbinom(q = a, size = b, prob = c)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">q: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+b: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">试验次数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">c: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每次试验的成功概率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二项随机变量的累积分布函数（CDF）的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnorm(x, mean = a, sd = b)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">平均数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">b: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标准差</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正态随机变量的概率密度函数（PDF）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2970,7 +3364,7 @@
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">折线图；
+      <t xml:space="preserve">折线（曲线）图；
 </t>
     </r>
     <r>
@@ -2994,26 +3388,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sample(vec, size = a, replace = b)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">vec: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">作为样本空间的向量
+    <t>图表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lines(x, a, col = colour, lty = t, lwd = b)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在图表上显示指定的曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">数据表中的一列，或某个分布函数
 </t>
     </r>
     <r>
@@ -3023,17 +3421,17 @@
         <rFont val="Cascadia Code"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">a: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">试验次数
+      <t xml:space="preserve">colour: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">颜色（字符串）
 </t>
     </r>
     <r>
@@ -3043,171 +3441,75 @@
         <rFont val="Cascadia Code"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">b: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>布尔值；为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>TRUE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时允许重复的事件（有替换地取样），为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>FALSE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时不允许重复的事件（无替换地取样）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在样本空间内进行一定次数的随机取样，返回一个包含结果的向量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set.seed(a)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">a: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>种子码</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置随机种子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replicate(n = x, sample(vec, size = a, replace = b))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个常用的重复抽样的函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">x: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">重复次数
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">vec: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">作为样本空间的向量
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">a: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">试验次数
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">b: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>布尔值（同上项）</t>
+      <t xml:space="preserve">t: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线条的线型（数字）（见第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+b: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线条的粗细（数字）；默认为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，数字越大线条就越粗</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3659,10 +3961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.3"/>
@@ -4591,7 +4893,7 @@
         <v>173</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="64" x14ac:dyDescent="0.3">
@@ -4611,69 +4913,150 @@
     </row>
     <row r="66" spans="1:5" ht="78" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="E66" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="E67" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="64" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D68" s="5" t="s">
+    </row>
+    <row r="69" spans="1:5" ht="48" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="4"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="4"/>
+      <c r="C69" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="48" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="B70" s="4"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
+      <c r="C70" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="B71" s="4"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="4"/>
+      <c r="C71" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/course/major/R语言语法速查.xlsx
+++ b/course/major/R语言语法速查.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Academy_Centre\第三学期\[专业]定量研究方法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1490DB-B0A8-4390-9C0D-8FA935706AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16B3E31-940F-4A53-9B93-0D5DC64BB054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3290" yWindow="1900" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="2320" windowWidth="19200" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="218">
   <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -890,10 +890,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mat[a, b]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>矩阵中的元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1522,62 +1518,6 @@
         <charset val="134"/>
       </rPr>
       <t>列；可以是列的序数，也可以是列的名称（字符串）；留空时，显示全列的元素</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">mat: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">矩阵
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">a: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">行的序数
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">b: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>列的序数</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3510,6 +3450,418 @@
         <charset val="134"/>
       </rPr>
       <t>，数字越大线条就越粗</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>density(col)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">col: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据表中的一列，或某个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>numeric</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>生成一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>density</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>对象</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mat: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">矩阵
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">a: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">行的序数；若留空，则表示整列
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">b: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列的序数；若留空，则表示整行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mat[[a], [b]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var(x[, na.rm = TRUE/FALSE])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">x: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一个向量，或数据表中的一列，或某个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>numeric</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+na.rm: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否忽略缺失项；默认为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>FALSE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算矩阵中每一列的平均值，并将其输出为一个向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colMeans(mat[, na.rm = TRUE/FALSE])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mat: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>矩阵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+na.rm: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否忽略缺失项；默认为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>FALSE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply(mat, x, fun)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mat: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">矩阵
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">x: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>x = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，作用于每一行；当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>x = 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">时，作用于每一列
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">fun: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>将函数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>fun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>作用于矩阵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>mat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>的每一行（或每一列）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3963,8 +4315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.3"/>
@@ -4073,54 +4425,54 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="62" x14ac:dyDescent="0.3">
@@ -4187,7 +4539,7 @@
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4299,10 +4651,10 @@
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>45</v>
@@ -4437,10 +4789,10 @@
         <v>71</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.3">
@@ -4449,13 +4801,13 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="E34" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="48" x14ac:dyDescent="0.3">
@@ -4464,299 +4816,299 @@
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="E37" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="46" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="46" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="E43" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="E48" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="46" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="9" t="b">
@@ -4764,12 +5116,12 @@
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="9" t="b">
@@ -4777,272 +5129,304 @@
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="78" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="E63" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="126" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="64" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="78" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="64" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="E68" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="E72" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="4"/>
+      <c r="D73" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="48" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="B74" s="4"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="4"/>
+      <c r="C74" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>211</v>
+      </c>
       <c r="B75" s="4"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="4"/>
+      <c r="C75" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="62" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>211</v>
+      </c>
       <c r="B76" s="4"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="4"/>
+      <c r="C76" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>

--- a/course/major/R语言语法速查.xlsx
+++ b/course/major/R语言语法速查.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Academy_Centre\第三学期\[专业]定量研究方法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16B3E31-940F-4A53-9B93-0D5DC64BB054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0DD2CD-1640-478D-BF86-F685EF9BB7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="2320" windowWidth="19200" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5780" yWindow="4790" windowWidth="19200" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="228">
   <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3862,6 +3862,306 @@
         <family val="2"/>
       </rPr>
       <t>的每一行（或每一列）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qnorm(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">x: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>置信水平的对应数值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>99%→x=0.995</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>95%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>x=0.975</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>90%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>x=0.95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd(x[, na.rm = TRUE/FALSE])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qt(x, df = y)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">x: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>置信水平的对应数值（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>99%→x=0.995</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>95%→x=0.975</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>90%→x=0.95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">y: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自由度；自由度为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>n-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，此处填写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>length(n-1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置信水平在正态分布的对应临界值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>置信水平在学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>分布的对应临界值</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4313,10 +4613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.3"/>
@@ -5398,49 +5698,136 @@
         <v>205</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="5" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="62" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>211</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="62" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="4"/>
+    <row r="78" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="B78" s="4"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="4"/>
+      <c r="C78" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="64" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/course/major/R语言语法速查.xlsx
+++ b/course/major/R语言语法速查.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Academy_Centre\第三学期\[专业]定量研究方法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0DD2CD-1640-478D-BF86-F685EF9BB7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B67E55-6E3D-48AC-9325-C3E813AF6544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5780" yWindow="4790" windowWidth="19200" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5860" yWindow="3300" windowWidth="19200" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="235">
   <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4162,6 +4162,388 @@
         <family val="2"/>
       </rPr>
       <t>分布的对应临界值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">z: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">检验统计量
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">a: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>布尔值，当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>TRUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时为双边检测，当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>FALSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时为单边检测</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pnorm(z, lower.tail = a)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.test(x, mu = a, alternative = b)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">x: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一个向量，或数据表中的一列，或某个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>numeric</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+a: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预先指定值（零假设中正确的概率）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+b: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字符串，当为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>"greater"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>"less"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时为单边检测</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>进行单样本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>值假设检验（计算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>值）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>进行单样本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>检验（计算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>值）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。在样本容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>量足够大（不少于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）的情况下，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检验和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检验的结果差距不大</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4615,8 +4997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.3"/>
@@ -5773,19 +6155,35 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="4"/>
+    <row r="80" spans="1:5" ht="48" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="B80" s="4"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
+      <c r="C80" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="B81" s="4"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="4"/>
+      <c r="C81" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>

--- a/course/major/R语言语法速查.xlsx
+++ b/course/major/R语言语法速查.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Academy_Centre\第三学期\[专业]定量研究方法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B67E55-6E3D-48AC-9325-C3E813AF6544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76DFEF1-C246-4A61-9504-CD1C61CB12B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5860" yWindow="3300" windowWidth="19200" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="254">
   <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4544,6 +4544,290 @@
         <charset val="134"/>
       </rPr>
       <t>检验的结果差距不大</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cor(x, y)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">x, y: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个随机变量的相关性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以最小二乘法拟合线性回归模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm(y ~ x, data = dat)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">y: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>dat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">中的随机变量名，因变量
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">x: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>dat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">中的随机变量名，自变量
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">dat: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fitted(lm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lm: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线性回归模型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回线性模型拟合后的预测值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>segments(x1, y1, x2, y2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">x1, y1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">线段起点的横纵坐标
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">x2, y2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线段终点的横纵坐标</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制一个指定坐标间的线段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coef(lm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>先后返回线性回归模型的截距</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>(α_hat)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>和回归系数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>(β_hat)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resid(lm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>返回线性回归模型的残差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>(ε_hat)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4995,18 +5279,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.6640625" style="3"/>
     <col min="3" max="3" width="25.9140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="36.08203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="43.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="43.4140625" style="3" customWidth="1"/>
     <col min="6" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
@@ -6186,46 +6470,143 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="4"/>
+      <c r="A82" s="4" t="s">
+        <v>235</v>
+      </c>
       <c r="B82" s="4"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="4"/>
+      <c r="C82" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="48" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>235</v>
+      </c>
       <c r="B83" s="4"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="4"/>
+      <c r="C83" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="4"/>
+      <c r="A84" s="4" t="s">
+        <v>235</v>
+      </c>
       <c r="B84" s="4"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="4"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
+      <c r="C84" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="B85" s="4"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="4"/>
+      <c r="C85" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="B86" s="4"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="4"/>
+      <c r="C86" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="4"/>
+      <c r="A87" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="B87" s="4"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="4"/>
+      <c r="C87" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
